--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35CD72B-0D51-7F48-8245-4F93EE5EB0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568865B3-9DD7-5542-A5AB-B32A73115ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>周赛_24.09.07</t>
   </si>
   <si>
-    <t>老头</t>
-  </si>
-  <si>
     <t>￥110</t>
+  </si>
+  <si>
+    <t>牢头</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568865B3-9DD7-5542-A5AB-B32A73115ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75BDFBF-2E7F-DD4E-8A96-02CAB53A0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="12100" yWindow="5440" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>比赛</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>牢头</t>
+  </si>
+  <si>
+    <t>总奖金池</t>
+  </si>
+  <si>
+    <t>￥210</t>
+  </si>
+  <si>
+    <t>￥100</t>
+  </si>
+  <si>
+    <t>周赛_24.08.31</t>
+  </si>
+  <si>
+    <t>周赛_24.08.24</t>
   </si>
 </sst>
 </file>
@@ -424,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -437,7 +452,7 @@
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +462,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -457,6 +475,25 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75BDFBF-2E7F-DD4E-8A96-02CAB53A0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3F2EC2-0011-3D4E-8B77-0F35E93D6ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="5440" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="15280" yWindow="2780" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>比赛</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>周赛_24.08.24</t>
+  </si>
+  <si>
+    <t>可以陪我摸一辈子吗</t>
+  </si>
+  <si>
+    <t>周赛_24.09.21</t>
+  </si>
+  <si>
+    <t>￥50</t>
+  </si>
+  <si>
+    <t>￥150</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -468,31 +480,45 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3F2EC2-0011-3D4E-8B77-0F35E93D6ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D452070-6D92-4542-BA11-3491EB9D782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="2780" windowWidth="27640" windowHeight="15680" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="11920" yWindow="800" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>比赛</t>
   </si>
   <si>
-    <t>赞助人</t>
-  </si>
-  <si>
     <t>赞助金额</t>
   </si>
   <si>
@@ -81,6 +78,60 @@
   </si>
   <si>
     <t>￥150</t>
+  </si>
+  <si>
+    <t>周赛_24.09.30</t>
+  </si>
+  <si>
+    <t>周赛_22.12.11</t>
+  </si>
+  <si>
+    <t>周赛_22.12.04</t>
+  </si>
+  <si>
+    <t>周赛_22.11.29</t>
+  </si>
+  <si>
+    <t>￥134.38</t>
+  </si>
+  <si>
+    <t>周赛_23.06.15</t>
+  </si>
+  <si>
+    <t>周赛_23.05.03</t>
+  </si>
+  <si>
+    <t>额外赞助人</t>
+  </si>
+  <si>
+    <t>周赛_23.04.30</t>
+  </si>
+  <si>
+    <t>周赛_23.04.23</t>
+  </si>
+  <si>
+    <t>￥60</t>
+  </si>
+  <si>
+    <t>周赛_22.12.17</t>
+  </si>
+  <si>
+    <t>￥156.62</t>
+  </si>
+  <si>
+    <t>劳动节_24.05.01</t>
+  </si>
+  <si>
+    <t>￥293.28</t>
+  </si>
+  <si>
+    <t>清明节_24.04.05</t>
+  </si>
+  <si>
+    <t>测试赛_24.08.17</t>
+  </si>
+  <si>
+    <t>￥300</t>
   </si>
 </sst>
 </file>
@@ -451,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -469,57 +520,150 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D452070-6D92-4542-BA11-3491EB9D782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA13E8B-9754-EE41-9CE8-8BD23C9BB03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="800" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>比赛</t>
   </si>
@@ -132,16 +132,27 @@
   </si>
   <si>
     <t>￥300</t>
+  </si>
+  <si>
+    <t>周赛_23.10.12</t>
+  </si>
+  <si>
+    <t>周赛_23.10.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Times"/>
       <family val="2"/>
     </font>
@@ -502,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -531,112 +542,115 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -644,29 +658,46 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA13E8B-9754-EE41-9CE8-8BD23C9BB03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599DE555-6FAD-FF44-9497-BA313A9B4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>比赛</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>周赛_23.10.05</t>
+  </si>
+  <si>
+    <t>周赛_23.10.26</t>
+  </si>
+  <si>
+    <t>周赛_23.10.19</t>
+  </si>
+  <si>
+    <t>￥200</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -540,25 +549,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -566,35 +573,23 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -602,97 +597,133 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599DE555-6FAD-FF44-9497-BA313A9B4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B041B86-019C-E64C-8203-5A4BBBF2731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="4340" yWindow="520" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>比赛</t>
   </si>
@@ -101,9 +101,6 @@
     <t>周赛_23.05.03</t>
   </si>
   <si>
-    <t>额外赞助人</t>
-  </si>
-  <si>
     <t>周赛_23.04.30</t>
   </si>
   <si>
@@ -147,13 +144,25 @@
   </si>
   <si>
     <t>￥200</t>
+  </si>
+  <si>
+    <t>周赛_23.11.02</t>
+  </si>
+  <si>
+    <t>周赛_23.11.09</t>
+  </si>
+  <si>
+    <t>周赛_23.11.16</t>
+  </si>
+  <si>
+    <t>额外赞助</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +173,12 @@
       <sz val="8"/>
       <name val="Times"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,8 +201,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -536,194 +560,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B041B86-019C-E64C-8203-5A4BBBF2731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3404E0F-94A2-6745-8B77-E509ED0F69C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="520" windowWidth="28800" windowHeight="16100" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>比赛</t>
   </si>
@@ -131,38 +131,74 @@
     <t>￥300</t>
   </si>
   <si>
-    <t>周赛_23.10.12</t>
-  </si>
-  <si>
-    <t>周赛_23.10.05</t>
-  </si>
-  <si>
-    <t>周赛_23.10.26</t>
-  </si>
-  <si>
-    <t>周赛_23.10.19</t>
-  </si>
-  <si>
     <t>￥200</t>
   </si>
   <si>
-    <t>周赛_23.11.02</t>
-  </si>
-  <si>
-    <t>周赛_23.11.09</t>
-  </si>
-  <si>
-    <t>周赛_23.11.16</t>
-  </si>
-  <si>
     <t>额外赞助</t>
+  </si>
+  <si>
+    <t>周赛_24.12.28</t>
+  </si>
+  <si>
+    <t>周赛_24.10.05</t>
+  </si>
+  <si>
+    <t>周赛_24.10.12</t>
+  </si>
+  <si>
+    <t>周赛_24.10.19</t>
+  </si>
+  <si>
+    <t>周赛_24.10.26</t>
+  </si>
+  <si>
+    <t>周赛_24.11.02</t>
+  </si>
+  <si>
+    <t>周赛_24.11.09</t>
+  </si>
+  <si>
+    <t>周赛_24.11.16</t>
+  </si>
+  <si>
+    <t>周赛_24.11.23</t>
+  </si>
+  <si>
+    <t>周赛_24.11.30</t>
+  </si>
+  <si>
+    <t>周赛_24.12.07</t>
+  </si>
+  <si>
+    <t>周赛_24.12.14</t>
+  </si>
+  <si>
+    <t>周赛_24.12.21</t>
+  </si>
+  <si>
+    <t>周赛_25.01.04</t>
+  </si>
+  <si>
+    <t>周赛_25.01.11</t>
+  </si>
+  <si>
+    <t>周赛_25.01.18</t>
+  </si>
+  <si>
+    <t>周赛_25.01.25</t>
+  </si>
+  <si>
+    <t>周赛_25.02.01</t>
+  </si>
+  <si>
+    <t>周赛_25.02.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +215,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +252,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590C82B-4812-0C4F-8999-BEC3904E548E}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -564,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -574,182 +619,174 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -759,61 +796,189 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3404E0F-94A2-6745-8B77-E509ED0F69C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B0B7A-1907-844C-9D61-70FF252F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>比赛</t>
   </si>
@@ -192,13 +192,19 @@
   </si>
   <si>
     <t>周赛_25.02.08</t>
+  </si>
+  <si>
+    <t>￥50；20；30</t>
+  </si>
+  <si>
+    <t>平能笑；姬特你在干什么；cno41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +228,11 @@
       <name val="Times"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +608,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -692,8 +706,12 @@
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>

--- a/赞助明细/赞助明细.xlsx
+++ b/赞助明细/赞助明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/赞助明细/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B0B7A-1907-844C-9D61-70FF252F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C462C2EA-EA42-D449-A8B5-A8E7C434BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
+    <workbookView xWindow="0" yWindow="5580" windowWidth="28800" windowHeight="16040" xr2:uid="{414D5E6E-D195-114B-B6E7-64ABED3EA451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
